--- a/level-2/codeforces-phase-2-educational-contests/codeforces-phase-2-educational-contests.xlsx
+++ b/level-2/codeforces-phase-2-educational-contests/codeforces-phase-2-educational-contests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCC4D25-14B3-4E60-A870-B49069893886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D59EE0-1CD3-4B52-9DBE-BA78E33C89A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level 2 educational contests" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>Contest Link</t>
   </si>
@@ -656,6 +656,156 @@
   </si>
   <si>
     <t>https://codeforces.com/contest/1288</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 101</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 102</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 103</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 104</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 105</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 106</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 107</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 108</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 109</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 110</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 111</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 112</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 113</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 114</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 115</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 116</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 117</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 118</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 119</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 120</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 121</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 122</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 123</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 124</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 125</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1469</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1473</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1476</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1487</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1494</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1499</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1511</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1519</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1525</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1535</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1550</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1555</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1569</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1574</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1598</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1606</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1612</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1613</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1620</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1622</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1626</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1633</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1644</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1651</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1657</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1807,7 @@
       <c r="A2" s="26"/>
       <c r="B2" s="4">
         <f>COUNTA(B3:B861)</f>
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -3713,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="J99" s="15">
-        <f t="shared" ref="J99:J130" si="4">SUM(E99:I99)</f>
+        <f t="shared" ref="J99:J103" si="4">SUM(E99:I99)</f>
         <v>0</v>
       </c>
     </row>
@@ -3773,309 +3923,534 @@
         <v>2</v>
       </c>
       <c r="J103" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J103:J130" si="5">SUM(E103:I103)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A104" s="10"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="20"/>
+      <c r="A104" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" s="15">
+        <v>2</v>
+      </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
       <c r="I104" s="16"/>
-      <c r="J104" s="15"/>
+      <c r="J104" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="10"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="21"/>
+      <c r="A105" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" s="16">
+        <v>2</v>
+      </c>
       <c r="D105" s="15"/>
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
-      <c r="J105" s="15"/>
+      <c r="J105" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="10"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="20"/>
+      <c r="A106" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C106" s="15">
+        <v>2</v>
+      </c>
       <c r="D106" s="16"/>
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
-      <c r="J106" s="15"/>
+      <c r="J106" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="11"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="21"/>
+      <c r="A107" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C107" s="16">
+        <v>2</v>
+      </c>
       <c r="D107" s="15"/>
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
-      <c r="J107" s="15"/>
+      <c r="J107" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="10"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="20"/>
+      <c r="A108" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" s="15">
+        <v>2</v>
+      </c>
       <c r="D108" s="16"/>
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
-      <c r="J108" s="15"/>
+      <c r="J108" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="10"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="21"/>
+      <c r="A109" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" s="16">
+        <v>2</v>
+      </c>
       <c r="D109" s="15"/>
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
-      <c r="J109" s="15"/>
+      <c r="J109" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="10"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="20"/>
+      <c r="A110" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" s="15">
+        <v>2</v>
+      </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
       <c r="I110" s="16"/>
-      <c r="J110" s="15"/>
+      <c r="J110" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="10"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="21"/>
+      <c r="A111" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" s="15">
+        <v>2</v>
+      </c>
       <c r="D111" s="15"/>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="15"/>
+      <c r="J111" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="10"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="20"/>
+      <c r="A112" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="16">
+        <v>2</v>
+      </c>
       <c r="D112" s="16"/>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
-      <c r="J112" s="15"/>
+      <c r="J112" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="21"/>
+      <c r="A113" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C113" s="15">
+        <v>2</v>
+      </c>
       <c r="D113" s="15"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
-      <c r="J113" s="15"/>
+      <c r="J113" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="10"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="20"/>
+      <c r="A114" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C114" s="16">
+        <v>2</v>
+      </c>
       <c r="D114" s="16"/>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
-      <c r="J114" s="15"/>
+      <c r="J114" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="10"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="21"/>
+      <c r="A115" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" s="15">
+        <v>2</v>
+      </c>
       <c r="D115" s="15"/>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
-      <c r="J115" s="15"/>
+      <c r="J115" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="10"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="20"/>
+      <c r="A116" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" s="16">
+        <v>2</v>
+      </c>
       <c r="D116" s="16"/>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
-      <c r="J116" s="15"/>
+      <c r="J116" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="21"/>
+      <c r="A117" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" s="15">
+        <v>2</v>
+      </c>
       <c r="D117" s="15"/>
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
-      <c r="J117" s="15"/>
+      <c r="J117" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="11"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="20"/>
+      <c r="A118" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="16">
+        <v>2</v>
+      </c>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
-      <c r="J118" s="15"/>
+      <c r="J118" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="21"/>
+      <c r="A119" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C119" s="15">
+        <v>2</v>
+      </c>
       <c r="D119" s="15"/>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
-      <c r="J119" s="15"/>
+      <c r="J119" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="10"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="20"/>
+      <c r="A120" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="16">
+        <v>2</v>
+      </c>
       <c r="D120" s="16"/>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
-      <c r="J120" s="15"/>
+      <c r="J120" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="10"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="21"/>
+      <c r="A121" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" s="15">
+        <v>2</v>
+      </c>
       <c r="D121" s="15"/>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
-      <c r="J121" s="15"/>
+      <c r="J121" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="10"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="20"/>
+      <c r="A122" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="16">
+        <v>2</v>
+      </c>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
       <c r="I122" s="16"/>
-      <c r="J122" s="15"/>
+      <c r="J122" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="10"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="21"/>
+      <c r="A123" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" s="16">
+        <v>2</v>
+      </c>
       <c r="D123" s="15"/>
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
       <c r="I123" s="16"/>
-      <c r="J123" s="15"/>
+      <c r="J123" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="10"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="20"/>
+      <c r="A124" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" s="16">
+        <v>2</v>
+      </c>
       <c r="D124" s="16"/>
       <c r="E124" s="17"/>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
-      <c r="J124" s="15"/>
+      <c r="J124" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="10"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="21"/>
+      <c r="A125" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C125" s="16">
+        <v>2</v>
+      </c>
       <c r="D125" s="15"/>
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
-      <c r="J125" s="15"/>
+      <c r="J125" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="10"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="20"/>
+      <c r="A126" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" s="16">
+        <v>2</v>
+      </c>
       <c r="D126" s="16"/>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
-      <c r="J126" s="15"/>
+      <c r="J126" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="10"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="21"/>
+      <c r="A127" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="16">
+        <v>2</v>
+      </c>
       <c r="D127" s="15"/>
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
-      <c r="J127" s="15"/>
+      <c r="J127" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="10"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="20"/>
+      <c r="A128" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" s="16">
+        <v>2</v>
+      </c>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
       <c r="H128" s="16"/>
       <c r="I128" s="16"/>
-      <c r="J128" s="15"/>
+      <c r="J128" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
@@ -4582,7 +4957,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="A104:B128 B104:B138">
+  <conditionalFormatting sqref="B104:B138">
     <cfRule type="cellIs" dxfId="56" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4622,7 +4997,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B53 A54:A103">
+  <conditionalFormatting sqref="A37:B53 A54:A128">
     <cfRule type="cellIs" dxfId="48" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
